--- a/17 - Analise de Eventos para cada Cenário.xlsx
+++ b/17 - Analise de Eventos para cada Cenário.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t xml:space="preserve">Externo</t>
   </si>
@@ -79,13 +79,13 @@
     <t xml:space="preserve">Cliente entrega contrato assinado + pagamento em dinheiro</t>
   </si>
   <si>
-    <t xml:space="preserve">x(1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tratar Ajuste do Traje a Rigor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costureira Ajusta Traje a Rigor</t>
+    <t xml:space="preserve">X(1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tratar Ajustes do Traje a Rigor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costura Ajusta Traje a Rigor</t>
   </si>
   <si>
     <t xml:space="preserve">X(2)</t>
@@ -97,31 +97,25 @@
     <t xml:space="preserve">Tratar retirada do Traje a Rigor</t>
   </si>
   <si>
-    <t xml:space="preserve">Cliente entrega contrato assinado + pagamento em dinheiro + recibo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caixa entrega Traje a rigor para cliente + 2º via contrato + recibo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X(4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Devolver Traje a Rigor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tratar devolução do Traje a Rigor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente Devolve traje a Rigor + 2º via do contrato + recibo</t>
+    <t xml:space="preserve">Cliente solicita retirada do traje a rigor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente da feedback sobre o ajuste do traje a rigor + traje a rigor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costura Ajusta Traje a Rigor + ficha de medidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajustar Traje a Rigor Emergencial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atendimento solicita novo ajuste + traje a rigor + ficha de medidas</t>
   </si>
   <si>
     <t xml:space="preserve">X(5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caixa devolve 2º via do contrato + recibo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X(6)</t>
   </si>
 </sst>
 </file>
@@ -131,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -169,6 +163,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -215,8 +215,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF77BC65"/>
-        <bgColor rgb="FF99CC00"/>
+        <fgColor rgb="FFA1467E"/>
+        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
   </fills>
@@ -261,7 +261,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -330,8 +330,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -362,7 +374,7 @@
       <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFA1467E"/>
       <rgbColor rgb="FFFFF2CC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
@@ -392,7 +404,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF77BC65"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -411,7 +423,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
@@ -420,7 +432,7 @@
   <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="2.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="57.61"/>
@@ -595,26 +607,22 @@
       <c r="J7" s="13"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -622,37 +630,41 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="9"/>
+      <c r="B9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="D9" s="10" t="n">
         <v>7</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>33</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="20" t="s">
+        <v>31</v>
+      </c>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="14"/>
     </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>

--- a/17 - Analise de Eventos para cada Cenário.xlsx
+++ b/17 - Analise de Eventos para cada Cenário.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t xml:space="preserve">Externo</t>
   </si>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Tratar Ajustes do Traje a Rigor</t>
   </si>
   <si>
-    <t xml:space="preserve">Costura Ajusta Traje a Rigor</t>
+    <t xml:space="preserve">Costureira Ajusta Traje a Rigor</t>
   </si>
   <si>
     <t xml:space="preserve">X(2)</t>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">X(3)</t>
   </si>
   <si>
-    <t xml:space="preserve">Costura Ajusta Traje a Rigor + ficha de medidas</t>
+    <t xml:space="preserve">Costureira Ajusta Traje a Rigor + ficha de medidas</t>
   </si>
   <si>
     <t xml:space="preserve">Ajustar Traje a Rigor Emergencial</t>
@@ -116,6 +116,18 @@
   </si>
   <si>
     <t xml:space="preserve">X(5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devolver Traje a Rigor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tratar devolução do Traje a Rigor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente solicita devolução do traje a rigor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X(4)</t>
   </si>
 </sst>
 </file>
@@ -125,7 +137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -163,14 +175,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +223,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFA1467E"/>
         <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF468A1A"/>
+        <bgColor rgb="FF808000"/>
       </patternFill>
     </fill>
   </fills>
@@ -342,7 +354,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -406,7 +418,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF468A1A"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -425,13 +437,13 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="2.91"/>
@@ -554,10 +566,10 @@
       <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>22</v>
       </c>
+      <c r="G5" s="12"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -619,10 +631,10 @@
       <c r="E8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>27</v>
       </c>
+      <c r="G8" s="12"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
@@ -644,7 +656,7 @@
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="13" t="s">
         <v>31</v>
       </c>
       <c r="I9" s="13"/>
@@ -652,7 +664,29 @@
       <c r="K9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0"/>
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="9">
